--- a/bus.xlsx
+++ b/bus.xlsx
@@ -57,6 +57,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,8 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -369,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,6 +420,58 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1">
+        <v>345</v>
+      </c>
+      <c r="D2" s="2">
+        <v>546</v>
+      </c>
+      <c r="E2">
+        <v>56</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>567</v>
+      </c>
+      <c r="H2">
+        <v>57</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>234</v>
+      </c>
+      <c r="C3" s="1">
+        <v>345</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5668</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>567</v>
+      </c>
+      <c r="G3">
+        <v>567</v>
+      </c>
+      <c r="H3">
+        <v>576</v>
+      </c>
+      <c r="I3">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bus.xlsx
+++ b/bus.xlsx
@@ -9,22 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="bus" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Bus" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="E:\Projects\Qt\pattern\Bus.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="2" name="Bus1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="E:\Projects\Qt\pattern\Bus.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Номер</t>
   </si>
@@ -38,19 +44,88 @@
     <t>Время отправления</t>
   </si>
   <si>
+    <t>Время прибытия</t>
+  </si>
+  <si>
     <t>Пункт назначения</t>
   </si>
   <si>
     <t>Вокзал отправления</t>
   </si>
   <si>
-    <t>Платформа отправления</t>
-  </si>
-  <si>
     <t>Вокзал прибытия</t>
   </si>
   <si>
     <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Пункт отправления</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>02.05.1900</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>02.05.2019</t>
+  </si>
+  <si>
+    <t>30.07.2019</t>
   </si>
 </sst>
 </file>
@@ -58,9 +133,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +144,333 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -86,19 +478,222 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -109,6 +704,79 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema4">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="data-set">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="record" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="num" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="dateDeparture" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="dateArrival" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="timeDeparture" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="timeArrival" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="placeDeparture" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="placeArrival" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="terminalDeparture" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="terminalArrival" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="cost" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="4" Name="data-set_карта" RootElement="data-set" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Таблица11" displayName="Таблица11" ref="A1:J6" tableType="xml" totalsRowShown="0" connectionId="2">
+  <autoFilter ref="A1:J6"/>
+  <tableColumns count="10">
+    <tableColumn id="1" uniqueName="num" name="Номер">
+      <xmlColumnPr mapId="4" xpath="/data-set/record/num" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="dateDeparture" name="Дата отправления" dataDxfId="0">
+      <xmlColumnPr mapId="4" xpath="/data-set/record/dateDeparture" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="dateArrival" name="Дата прибытия" dataDxfId="3">
+      <xmlColumnPr mapId="4" xpath="/data-set/record/dateArrival" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="timeDeparture" name="Время отправления" dataDxfId="2">
+      <xmlColumnPr mapId="4" xpath="/data-set/record/timeDeparture" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="timeArrival" name="Время прибытия" dataDxfId="1">
+      <xmlColumnPr mapId="4" xpath="/data-set/record/timeArrival" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="placeDeparture" name="Пункт отправления">
+      <xmlColumnPr mapId="4" xpath="/data-set/record/placeDeparture" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="placeArrival" name="Пункт назначения">
+      <xmlColumnPr mapId="4" xpath="/data-set/record/placeArrival" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="terminalDeparture" name="Вокзал отправления">
+      <xmlColumnPr mapId="4" xpath="/data-set/record/terminalDeparture" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="terminalArrival" name="Вокзал прибытия">
+      <xmlColumnPr mapId="4" xpath="/data-set/record/terminalArrival" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="cost" name="Стоимость">
+      <xmlColumnPr mapId="4" xpath="/data-set/record/cost" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,105 +1042,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="1">
-        <v>123</v>
-      </c>
-      <c r="C2" s="1">
-        <v>345</v>
-      </c>
-      <c r="D2" s="2">
-        <v>546</v>
-      </c>
-      <c r="E2">
-        <v>56</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>567</v>
-      </c>
-      <c r="H2">
-        <v>57</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>234</v>
-      </c>
-      <c r="C3" s="1">
-        <v>345</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5668</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>567</v>
-      </c>
-      <c r="G3">
-        <v>567</v>
-      </c>
-      <c r="H3">
-        <v>576</v>
-      </c>
-      <c r="I3">
-        <v>67</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>